--- a/biology/Histoire de la zoologie et de la botanique/Muséum_des_sciences_naturelles/Muséum_des_sciences_naturelles.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Muséum_des_sciences_naturelles/Muséum_des_sciences_naturelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles</t>
+          <t>Muséum_des_sciences_naturelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Muséum des sciences naturelles, partie intégrante de l'Institut royal des sciences naturelles de Belgique (IRSNB), est le musée d'histoire naturelle de rang national de la Belgique. Il est situé à Bruxelles dans le parc Léopold, non loin des bâtiments du Parlement européen. Le musée possède une collection estimée à 38 millions de pièces.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles</t>
+          <t>Muséum_des_sciences_naturelles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Musée royal d'Histoire naturelle de Belgique est créé par un arrêté royal du 31 mars 1846 à la suite du rachat par l’État belge des collections du Musée d'histoire naturelle de Bruxelles (souvent appelé Musée de Bruxelles), fondé en 1802 et lui-même issu indirectement de la collection réunie à la fin du XVIIIe siècle par le prince Charles Alexandre de Lorraine. Bernard du Bus de Gisignies devient le premier directeur du musée dès sa fondation[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Musée royal d'Histoire naturelle de Belgique est créé par un arrêté royal du 31 mars 1846 à la suite du rachat par l’État belge des collections du Musée d'histoire naturelle de Bruxelles (souvent appelé Musée de Bruxelles), fondé en 1802 et lui-même issu indirectement de la collection réunie à la fin du XVIIIe siècle par le prince Charles Alexandre de Lorraine. Bernard du Bus de Gisignies devient le premier directeur du musée dès sa fondation.
 Entre 1889 et 1891, le Muséum s’installe dans un ancien couvent situé sur les hauteurs du parc Léopold. Le bâtiment devenant rapidement trop étroit, le directeur de l’époque, Édouard Dupont, confie à l’architecte Charles-Émile Janlet la construction d’une nouvelle aile sud. Les travaux débutent en 1898 et se terminent en octobre 1905.
 Les nouvelles salles sont spécialement conçues pour accueillir la plus extraordinaire découverte paléontologique de l’époque : les iguanodons de Bernissart, qui en deviendront la principale attraction. En 1878, dans les galeries des mines de charbon de Bernissart en Hainaut, à plus de 300 mètres de profondeur, sont découverts une trentaine de squelettes presque entiers d’une espèce de dinosaures alors inconnue, l'Iguanodon bernissartensis, datant d’environ 135 Ma. Y sont également ramenés au jour de très nombreux fossiles de végétaux et d’animaux de la même période : crocodiles, tortues, poissons et insectes.
 Un des rares exemplaires naturalisés de Grand Pingouin, espèce disparue depuis le début du XIXe siècle, se trouve également au Musée, dans les réserves non visibles par le public.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles</t>
+          <t>Muséum_des_sciences_naturelles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Salles permanentes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">galerie des dinosaures qui comprend tout un troupeau d'iguanodons
 salle des mosasaures ; quelques échantillons d'une collection unique au monde
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles</t>
+          <t>Muséum_des_sciences_naturelles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,9 +601,11 @@
           <t>La nouvelle galerie de dinosaures</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Muséum des sciences naturelles a ouvert le 27 octobre 2007 la nouvelle galerie des dinosaures[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Muséum des sciences naturelles a ouvert le 27 octobre 2007 la nouvelle galerie des dinosaures,.
 Le musée possède la plus grande galerie de dinosaures d'Europe où fossiles, moulages ou originaux sont présentés.
 Parmi les espèces de cette « aile Janlet », on peut citer :
 la collection d'Iguanodons authentiques découverts à Bernissart ;
@@ -614,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles</t>
+          <t>Muséum_des_sciences_naturelles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,7 +650,9 @@
           <t>Holotypes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut conserve quelque 30 000 holotypes[réf. nécessaire].
 </t>
@@ -645,7 +665,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles</t>
+          <t>Muséum_des_sciences_naturelles</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -663,7 +683,9 @@
           <t>Bibliothèque</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée met à disposition des visiteurs une vaste collection d'ouvrages, consultable à la Bibliothèque centrale de l'Institut royal des Sciences naturelles.
 </t>
@@ -676,7 +698,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles</t>
+          <t>Muséum_des_sciences_naturelles</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -694,7 +716,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Train: 
 Gare Bruxelles-Luxembourg, sortie no 2.
